--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1513785.13086727</v>
+        <v>1510933.295635416</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>265.9492042770681</v>
       </c>
       <c r="D2" t="n">
-        <v>185.9516856302373</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.96189723698664</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>163.1726582438466</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>318.8045857861998</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -949,13 +949,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>190.628187480959</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>53.90643844098945</v>
       </c>
       <c r="W7" t="n">
-        <v>83.09224796262748</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>268.2501091932528</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1141,7 +1141,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1150,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>65.63950168587627</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1183,22 +1183,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.7498202162627</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>165.6158245190444</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>66.68447052885311</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>357.8732362032024</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>59.3088811571333</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>128.5631274482084</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>67.48488799486991</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1660,22 +1660,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>357.2936481843886</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>95.98918911403641</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.8313869843473</v>
+        <v>142.0189724048175</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7966226942563</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>138.6347829460059</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1940,10 +1940,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H18" t="n">
-        <v>86.38229489247477</v>
+        <v>86.38229489247479</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579025</v>
+        <v>45.21383710579027</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871753</v>
+        <v>17.04250582871755</v>
       </c>
       <c r="S18" t="n">
         <v>131.596291311278</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>118.6333759660425</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>199.2264929501065</v>
@@ -2061,7 +2061,7 @@
         <v>282.5795167355755</v>
       </c>
       <c r="V19" t="n">
-        <v>139.8612346473946</v>
+        <v>258.4946106134371</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>359.8080121744719</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.8313869843473</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>318.7966226942563</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>142.0189724048192</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H21" t="n">
-        <v>86.38229489247477</v>
+        <v>86.38229489247479</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579025</v>
+        <v>45.21383710579027</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.04250582871752</v>
+        <v>17.04250582871755</v>
       </c>
       <c r="S21" t="n">
         <v>131.596291311278</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>58.13102202219996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.1271674224726</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.069057250924</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>118.6333759660425</v>
       </c>
       <c r="S22" t="n">
-        <v>194.4015518361599</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>232.9790380929423</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5795167355755</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.7220167292417</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>152.4706207287521</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2417,7 +2417,7 @@
         <v>84.32029961295802</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8629456688209</v>
+        <v>37.86294566882091</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340598009</v>
+        <v>3.786554340598034</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124799</v>
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.84804004782015</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416196</v>
+        <v>76.19311257242707</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685217</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270196</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717814</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>187.2458600856279</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>246.2686884007936</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>84.32029961295802</v>
       </c>
       <c r="I27" t="n">
-        <v>37.8629456688209</v>
+        <v>37.86294566882091</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340598009</v>
+        <v>3.786554340598034</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124799</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.3566509204193</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>170.3626383224949</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>68.14358556933327</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>151.2037672717815</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9267059105755</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>112.3002456454819</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>76.193112572427</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5697534131281</v>
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3049,7 +3049,7 @@
         <v>314.7099853831354</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270197</v>
+        <v>35.74997933839893</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
@@ -3088,16 +3088,16 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>4.946653683968529</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598038</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124799</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.8773827495454</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>76.1931125724271</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.37061520902384</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
@@ -3286,7 +3286,7 @@
         <v>314.7099853831354</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.6444459974996</v>
@@ -3325,10 +3325,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>32.11406875301746</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598038</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124799</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.715101816869508</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>76.19311257242708</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.5851438286121</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
@@ -3517,7 +3517,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>108.3478702182153</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>152.7430060483299</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598038</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124799</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.5851438286121</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281789</v>
+        <v>76.193112572427</v>
       </c>
       <c r="T40" t="n">
-        <v>183.5396165995661</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>229.6702109923354</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3754,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>151.2037672717815</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>89.55488192791036</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3805,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598038</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124799</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.2839955554249</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.3566509204189</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3982,10 +3982,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>184.0116510015551</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,7 +3994,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>113.8693593270197</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>134.0812969919739</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4137,28 +4137,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>22.24399537431139</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>138.3566509204189</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685219</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1945.009999395723</v>
+        <v>893.6517152721435</v>
       </c>
       <c r="C2" t="n">
-        <v>1945.009999395723</v>
+        <v>625.0161553963171</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.180013910635</v>
+        <v>625.0161553963171</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>222.4326305128616</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>209.5785960832435</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>2734.957350174063</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.50474510712</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.50474510712</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>900.7358324498667</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>1220.474978512093</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>1293.671671132948</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1293.671671132948</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343507</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934488</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650885</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411552</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411552</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411552</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411552</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411552</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411552</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="H4" t="n">
-        <v>62.11912770411552</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I4" t="n">
-        <v>62.11912770411552</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U4" t="n">
-        <v>678.1273584875689</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>412.1480133083932</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="W4" t="n">
-        <v>247.3271463954168</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="X4" t="n">
-        <v>247.3271463954168</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.3271463954168</v>
+        <v>115.6912334709294</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1740.037617810512</v>
+        <v>1729.172715267177</v>
       </c>
       <c r="C5" t="n">
-        <v>1740.037617810512</v>
+        <v>1335.997213770107</v>
       </c>
       <c r="D5" t="n">
-        <v>1354.596489027179</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="E5" t="n">
-        <v>1354.596489027179</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="F5" t="n">
         <v>937.702050557157</v>
@@ -4564,7 +4564,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4585,7 +4585,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
         <v>3105.956385205776</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2708.896191704107</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2453.143462138706</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2111.036652842224</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W5" t="n">
-        <v>1740.037617810512</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="X5" t="n">
-        <v>1740.037617810512</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1740.037617810512</v>
+        <v>2051.197549394652</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L6" t="n">
-        <v>494.9732559860694</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M6" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.49739787801357</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="C7" t="n">
-        <v>92.49739787801357</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4761,16 +4761,16 @@
         <v>442.408306655803</v>
       </c>
       <c r="V7" t="n">
-        <v>176.4289614766272</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="W7" t="n">
-        <v>92.49739787801357</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="X7" t="n">
-        <v>92.49739787801357</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.49739787801357</v>
+        <v>387.9573587356116</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2278.016120712958</v>
+        <v>1809.130068874072</v>
       </c>
       <c r="C8" t="n">
-        <v>1884.840619215888</v>
+        <v>1415.954567377002</v>
       </c>
       <c r="D8" t="n">
-        <v>1499.399490432556</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E8" t="n">
-        <v>1096.8159655491</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F8" t="n">
-        <v>679.9215270790781</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G8" t="n">
-        <v>266.7587715670813</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4822,7 +4822,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
         <v>3105.956385205776</v>
@@ -4831,25 +4831,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.963471491298</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>3067.963471491298</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>3067.963471491298</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.510866424354</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="Y8" t="n">
-        <v>2678.510866424354</v>
+        <v>2080.089775129883</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.49739787801357</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="C10" t="n">
-        <v>92.49739787801357</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>603.946109046479</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>318.50731728838</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>318.50731728838</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>92.49739787801357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>92.49739787801357</v>
+        <v>796.2774386102695</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.49739787801357</v>
+        <v>573.1653774269129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>522.6526802404305</v>
+        <v>2021.701838714967</v>
       </c>
       <c r="C11" t="n">
-        <v>129.4771787433611</v>
+        <v>1628.526337217898</v>
       </c>
       <c r="D11" t="n">
-        <v>62.11912770411552</v>
+        <v>1243.085208434565</v>
       </c>
       <c r="E11" t="n">
-        <v>62.11912770411552</v>
+        <v>840.5016835511099</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411552</v>
+        <v>423.6072450810876</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5068,7 +5068,7 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
         <v>2677.949313991765</v>
@@ -5077,16 +5077,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129882</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031226</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="Y11" t="n">
-        <v>923.1474259518275</v>
+        <v>2422.196584426364</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>590.5449484942064</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>434.9118353967212</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>279.3530232559237</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>122.0270884688966</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5232,19 +5232,19 @@
         <v>760.7500664282172</v>
       </c>
       <c r="U13" t="n">
-        <v>760.7500664282172</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="V13" t="n">
-        <v>760.7500664282172</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7500664282172</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1757.180013910635</v>
+        <v>1886.704645790629</v>
       </c>
       <c r="C14" t="n">
-        <v>1757.180013910635</v>
+        <v>1886.704645790629</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1501.263517007297</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>1098.679992123841</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>681.7855536538192</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>268.6227981418223</v>
       </c>
       <c r="H14" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5296,7 +5296,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5308,22 +5308,22 @@
         <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>2715.942227706244</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U14" t="n">
-        <v>2460.189498140842</v>
+        <v>2683.690100581425</v>
       </c>
       <c r="V14" t="n">
-        <v>2118.082688844361</v>
+        <v>2683.690100581425</v>
       </c>
       <c r="W14" t="n">
-        <v>1757.180013910635</v>
+        <v>2683.690100581425</v>
       </c>
       <c r="X14" t="n">
-        <v>1757.180013910635</v>
+        <v>2683.690100581425</v>
       </c>
       <c r="Y14" t="n">
-        <v>1757.180013910635</v>
+        <v>2287.199391502026</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2399.808972417978</v>
+        <v>1808.284692343447</v>
       </c>
       <c r="C17" t="n">
-        <v>2006.633470920909</v>
+        <v>1415.109190846377</v>
       </c>
       <c r="D17" t="n">
-        <v>1621.192342137576</v>
+        <v>1029.668062063045</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.608817254121</v>
+        <v>627.0845371795892</v>
       </c>
       <c r="F17" t="n">
-        <v>801.7143787840985</v>
+        <v>210.190098709567</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7533818302123</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="H17" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523363</v>
+        <v>228.1696018523362</v>
       </c>
       <c r="K17" t="n">
-        <v>612.3056806068555</v>
+        <v>612.3056806068554</v>
       </c>
       <c r="L17" t="n">
         <v>1136.831389612611</v>
       </c>
       <c r="M17" t="n">
-        <v>1717.554329029439</v>
+        <v>1717.554329029438</v>
       </c>
       <c r="N17" t="n">
-        <v>2280.649490936965</v>
+        <v>2280.649490936964</v>
       </c>
       <c r="O17" t="n">
-        <v>2754.006657546724</v>
+        <v>2754.006657546723</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.629921188946</v>
+        <v>3130.629921188945</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="R17" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="S17" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="T17" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="U17" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="V17" t="n">
-        <v>3336.829561497669</v>
+        <v>2994.722752201186</v>
       </c>
       <c r="W17" t="n">
-        <v>3336.829561497669</v>
+        <v>2994.722752201186</v>
       </c>
       <c r="X17" t="n">
-        <v>3196.794427208774</v>
+        <v>2605.270147134243</v>
       </c>
       <c r="Y17" t="n">
-        <v>2800.303718129375</v>
+        <v>2208.779438054843</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1827.009748376239</v>
+        <v>861.235339493828</v>
       </c>
       <c r="C18" t="n">
-        <v>1676.355517936331</v>
+        <v>710.5811090539202</v>
       </c>
       <c r="D18" t="n">
-        <v>1546.266550557811</v>
+        <v>580.4921416754005</v>
       </c>
       <c r="E18" t="n">
-        <v>1409.820059668699</v>
+        <v>444.0456507862882</v>
       </c>
       <c r="F18" t="n">
-        <v>1285.388253551831</v>
+        <v>319.61384466942</v>
       </c>
       <c r="G18" t="n">
-        <v>1165.436385969197</v>
+        <v>199.6619770867867</v>
       </c>
       <c r="H18" t="n">
-        <v>1078.181542643465</v>
+        <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>1032.511000112364</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="J18" t="n">
-        <v>1155.621963737596</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="K18" t="n">
-        <v>1155.621963737596</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="L18" t="n">
-        <v>1662.160569921852</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="M18" t="n">
-        <v>1662.160569921852</v>
+        <v>721.3160884865491</v>
       </c>
       <c r="N18" t="n">
-        <v>2121.440682960962</v>
+        <v>1404.611431284547</v>
       </c>
       <c r="O18" t="n">
-        <v>2663.133984599545</v>
+        <v>1945.230216820598</v>
       </c>
       <c r="P18" t="n">
-        <v>3088.958920394206</v>
+        <v>2371.055152615258</v>
       </c>
       <c r="Q18" t="n">
-        <v>3336.829561497669</v>
+        <v>2371.055152615258</v>
       </c>
       <c r="R18" t="n">
-        <v>3319.614909145429</v>
+        <v>2353.840500263017</v>
       </c>
       <c r="S18" t="n">
-        <v>3186.68936236636</v>
+        <v>2220.914953483949</v>
       </c>
       <c r="T18" t="n">
-        <v>3010.140666212271</v>
+        <v>2044.36625732986</v>
       </c>
       <c r="U18" t="n">
-        <v>2800.084624887328</v>
+        <v>1834.310216004916</v>
       </c>
       <c r="V18" t="n">
-        <v>2577.544623258394</v>
+        <v>1611.770214375983</v>
       </c>
       <c r="W18" t="n">
-        <v>2347.427377391681</v>
+        <v>1381.65296850927</v>
       </c>
       <c r="X18" t="n">
-        <v>2158.120299741693</v>
+        <v>1192.345890859282</v>
       </c>
       <c r="Y18" t="n">
-        <v>1978.8060828172</v>
+        <v>1013.031673934789</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="C19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="D19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="E19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="F19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="K19" t="n">
         <v>158.8770705324147</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544511</v>
+        <v>336.192123254451</v>
       </c>
       <c r="M19" t="n">
-        <v>536.3879794294611</v>
+        <v>536.387979429461</v>
       </c>
       <c r="N19" t="n">
-        <v>733.1512786480475</v>
+        <v>733.1512786480473</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516721</v>
+        <v>908.3935224516719</v>
       </c>
       <c r="P19" t="n">
-        <v>1038.99766551411</v>
+        <v>1038.997665514109</v>
       </c>
       <c r="Q19" t="n">
         <v>1049.847357282541</v>
       </c>
       <c r="R19" t="n">
-        <v>930.0156643875483</v>
+        <v>1049.847357282541</v>
       </c>
       <c r="S19" t="n">
-        <v>728.7767826197639</v>
+        <v>848.6084755147563</v>
       </c>
       <c r="T19" t="n">
-        <v>493.4444209097211</v>
+        <v>613.2761138047135</v>
       </c>
       <c r="U19" t="n">
-        <v>208.0105656212611</v>
+        <v>327.8422585162535</v>
       </c>
       <c r="V19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="W19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="X19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1664.831184863833</v>
+        <v>1967.492382577324</v>
       </c>
       <c r="C20" t="n">
-        <v>1271.655683366763</v>
+        <v>1967.492382577324</v>
       </c>
       <c r="D20" t="n">
-        <v>886.2145545834311</v>
+        <v>1582.051253793991</v>
       </c>
       <c r="E20" t="n">
-        <v>483.6310296999756</v>
+        <v>1218.608817254121</v>
       </c>
       <c r="F20" t="n">
-        <v>66.73659122995338</v>
+        <v>801.7143787840985</v>
       </c>
       <c r="G20" t="n">
-        <v>66.73659122995338</v>
+        <v>388.7533818302122</v>
       </c>
       <c r="H20" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="J20" t="n">
         <v>228.1696018523362</v>
@@ -5761,43 +5761,43 @@
         <v>1136.831389612611</v>
       </c>
       <c r="M20" t="n">
-        <v>1717.554329029439</v>
+        <v>1717.554329029438</v>
       </c>
       <c r="N20" t="n">
-        <v>2280.649490936965</v>
+        <v>2280.649490936964</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546724</v>
+        <v>2754.006657546723</v>
       </c>
       <c r="P20" t="n">
         <v>3130.629921188945</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="S20" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="T20" t="n">
-        <v>3336.829561497669</v>
+        <v>3336.829561497667</v>
       </c>
       <c r="U20" t="n">
-        <v>3193.376054018053</v>
+        <v>3081.092972616915</v>
       </c>
       <c r="V20" t="n">
-        <v>2851.269244721572</v>
+        <v>2738.986163320433</v>
       </c>
       <c r="W20" t="n">
-        <v>2851.269244721572</v>
+        <v>2367.987128288721</v>
       </c>
       <c r="X20" t="n">
-        <v>2461.816639654628</v>
+        <v>2367.987128288721</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.325930575229</v>
+        <v>2367.987128288721</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="J21" t="n">
-        <v>66.73659122995338</v>
+        <v>189.8475548551852</v>
       </c>
       <c r="K21" t="n">
-        <v>66.73659122995338</v>
+        <v>526.671425275912</v>
       </c>
       <c r="L21" t="n">
-        <v>573.2751974142097</v>
+        <v>1033.210031460168</v>
       </c>
       <c r="M21" t="n">
-        <v>1146.066508178677</v>
+        <v>1687.789528716764</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.361850976674</v>
+        <v>2371.055152615258</v>
       </c>
       <c r="O21" t="n">
         <v>2371.055152615258</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.73659122995338</v>
+        <v>410.5014868820712</v>
       </c>
       <c r="C22" t="n">
-        <v>66.73659122995338</v>
+        <v>410.5014868820712</v>
       </c>
       <c r="D22" t="n">
-        <v>66.73659122995338</v>
+        <v>410.5014868820712</v>
       </c>
       <c r="E22" t="n">
-        <v>66.73659122995338</v>
+        <v>410.5014868820712</v>
       </c>
       <c r="F22" t="n">
-        <v>66.73659122995338</v>
+        <v>351.7832828192429</v>
       </c>
       <c r="G22" t="n">
-        <v>66.73659122995338</v>
+        <v>351.7832828192429</v>
       </c>
       <c r="H22" t="n">
-        <v>66.73659122995338</v>
+        <v>197.1093763318968</v>
       </c>
       <c r="I22" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="J22" t="n">
-        <v>66.73659122995338</v>
+        <v>66.73659122995335</v>
       </c>
       <c r="K22" t="n">
-        <v>158.8770705324148</v>
+        <v>158.8770705324147</v>
       </c>
       <c r="L22" t="n">
-        <v>336.1921232544512</v>
+        <v>336.192123254451</v>
       </c>
       <c r="M22" t="n">
-        <v>536.3879794294612</v>
+        <v>536.387979429461</v>
       </c>
       <c r="N22" t="n">
-        <v>733.1512786480477</v>
+        <v>733.1512786480473</v>
       </c>
       <c r="O22" t="n">
-        <v>908.3935224516722</v>
+        <v>908.3935224516719</v>
       </c>
       <c r="P22" t="n">
-        <v>1038.99766551411</v>
+        <v>1038.997665514109</v>
       </c>
       <c r="Q22" t="n">
         <v>1049.847357282541</v>
       </c>
       <c r="R22" t="n">
-        <v>1049.847357282541</v>
+        <v>930.0156643875481</v>
       </c>
       <c r="S22" t="n">
-        <v>853.482153407632</v>
+        <v>930.0156643875481</v>
       </c>
       <c r="T22" t="n">
-        <v>618.1497916975892</v>
+        <v>930.0156643875481</v>
       </c>
       <c r="U22" t="n">
-        <v>332.7159364091291</v>
+        <v>644.5818090990881</v>
       </c>
       <c r="V22" t="n">
-        <v>66.73659122995338</v>
+        <v>644.5818090990881</v>
       </c>
       <c r="W22" t="n">
-        <v>66.73659122995338</v>
+        <v>644.5818090990881</v>
       </c>
       <c r="X22" t="n">
-        <v>66.73659122995338</v>
+        <v>410.5014868820712</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.73659122995338</v>
+        <v>410.5014868820712</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2086.613754494874</v>
+        <v>1669.724021641784</v>
       </c>
       <c r="C23" t="n">
-        <v>1693.438252997805</v>
+        <v>1276.548520144714</v>
       </c>
       <c r="D23" t="n">
-        <v>1307.997124214472</v>
+        <v>1276.548520144714</v>
       </c>
       <c r="E23" t="n">
-        <v>905.4135993310171</v>
+        <v>873.9649952612588</v>
       </c>
       <c r="F23" t="n">
-        <v>488.5191608609948</v>
+        <v>873.9649952612588</v>
       </c>
       <c r="G23" t="n">
-        <v>75.96123154786333</v>
+        <v>461.4070659481273</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786333</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I23" t="n">
         <v>75.96123154786333</v>
       </c>
       <c r="J23" t="n">
-        <v>270.923328087483</v>
+        <v>270.9233280874831</v>
       </c>
       <c r="K23" t="n">
         <v>705.3108151130486</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612516</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M23" t="n">
         <v>1942.267504401616</v>
@@ -6010,31 +6010,31 @@
         <v>3549.20134913063</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393167</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="R23" t="n">
         <v>3798.061577393166</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393166</v>
+        <v>3645.330499340862</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393166</v>
+        <v>3424.477523585812</v>
       </c>
       <c r="U23" t="n">
-        <v>3798.061577393166</v>
+        <v>3168.77318011632</v>
       </c>
       <c r="V23" t="n">
-        <v>3644.050849384326</v>
+        <v>2826.666370819838</v>
       </c>
       <c r="W23" t="n">
-        <v>3273.051814352613</v>
+        <v>2455.667335788126</v>
       </c>
       <c r="X23" t="n">
-        <v>2883.59920928567</v>
+        <v>2066.214730721183</v>
       </c>
       <c r="Y23" t="n">
-        <v>2487.108500206271</v>
+        <v>1669.724021641784</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G24" t="n">
         <v>199.3786510244077</v>
@@ -6068,25 +6068,25 @@
         <v>75.96123154786333</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786333</v>
+        <v>219.0418890481677</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786333</v>
+        <v>219.0418890481677</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758463</v>
+        <v>219.0418890481677</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968185</v>
+        <v>927.1773593405065</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3747.710021789308</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="C25" t="n">
-        <v>3577.504903855297</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="D25" t="n">
-        <v>3421.871790757811</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="E25" t="n">
-        <v>3266.312978617014</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="F25" t="n">
-        <v>3108.987043829987</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="G25" t="n">
-        <v>2941.004294140358</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="H25" t="n">
-        <v>2787.937884177171</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="I25" t="n">
-        <v>2663.002316357353</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.53365124307</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890254</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943601</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276962</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753461</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719419</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393166</v>
+        <v>987.6577121146041</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393166</v>
+        <v>702.23371876801</v>
       </c>
       <c r="V25" t="n">
-        <v>3798.061577393166</v>
+        <v>436.2543735888343</v>
       </c>
       <c r="W25" t="n">
-        <v>3798.061577393166</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="X25" t="n">
-        <v>3798.061577393166</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="Y25" t="n">
-        <v>3798.061577393166</v>
+        <v>152.9239715200119</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2519.522183495031</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.346681997961</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D26" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331174</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611514</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G26" t="n">
-        <v>508.86966054802</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H26" t="n">
         <v>190.9807864236408</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874831</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130485</v>
+        <v>705.3108151130486</v>
       </c>
       <c r="L26" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612516</v>
       </c>
       <c r="M26" t="n">
         <v>1942.267504401616</v>
@@ -6247,31 +6247,31 @@
         <v>3549.20134913063</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393167</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="R26" t="n">
         <v>3798.061577393166</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340862</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585812</v>
+        <v>3577.208601638116</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.77318011632</v>
+        <v>3577.208601638116</v>
       </c>
       <c r="V26" t="n">
-        <v>3168.77318011632</v>
+        <v>3577.208601638116</v>
       </c>
       <c r="W26" t="n">
-        <v>3168.77318011632</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X26" t="n">
-        <v>3168.77318011632</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y26" t="n">
-        <v>2920.016929206427</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786333</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L27" t="n">
-        <v>628.3937003794185</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.529170671758</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="N27" t="n">
-        <v>2074.797953750983</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.96123154786333</v>
+        <v>555.1359064757751</v>
       </c>
       <c r="C28" t="n">
-        <v>75.96123154786333</v>
+        <v>555.1359064757751</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786333</v>
+        <v>399.5027933782898</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K28" t="n">
-        <v>188.6896288950471</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L28" t="n">
-        <v>392.3501285422313</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955784</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289389</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O28" t="n">
-        <v>1044.493221405439</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P28" t="n">
         <v>1196.529419371396</v>
@@ -6408,28 +6408,28 @@
         <v>1222.217555045143</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045143</v>
+        <v>1110.515389561696</v>
       </c>
       <c r="S28" t="n">
-        <v>1222.217555045143</v>
+        <v>912.4273982201015</v>
       </c>
       <c r="T28" t="n">
-        <v>1222.217555045143</v>
+        <v>912.4273982201015</v>
       </c>
       <c r="U28" t="n">
-        <v>1222.217555045143</v>
+        <v>912.4273982201015</v>
       </c>
       <c r="V28" t="n">
-        <v>956.2382098659676</v>
+        <v>912.4273982201015</v>
       </c>
       <c r="W28" t="n">
-        <v>672.9078077971453</v>
+        <v>912.4273982201015</v>
       </c>
       <c r="X28" t="n">
-        <v>438.8274855801284</v>
+        <v>740.3439251670763</v>
       </c>
       <c r="Y28" t="n">
-        <v>215.7154243967717</v>
+        <v>740.3439251670763</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1271.472300298287</v>
+        <v>2087.893404451409</v>
       </c>
       <c r="C29" t="n">
-        <v>878.2967988012178</v>
+        <v>1694.71790295434</v>
       </c>
       <c r="D29" t="n">
-        <v>492.8556700178856</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E29" t="n">
-        <v>492.8556700178856</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F29" t="n">
-        <v>75.96123154786333</v>
+        <v>806.408034985374</v>
       </c>
       <c r="G29" t="n">
-        <v>75.96123154786333</v>
+        <v>393.8501056722425</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874831</v>
+        <v>270.923328087483</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130488</v>
+        <v>705.3108151130483</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612516</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M29" t="n">
         <v>1942.267504401616</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818618</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361766</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.20134913063</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340862</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585812</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="U29" t="n">
-        <v>3171.01620448422</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="V29" t="n">
-        <v>2828.909395187739</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="W29" t="n">
-        <v>2457.910360156026</v>
+        <v>3274.331464309148</v>
       </c>
       <c r="X29" t="n">
-        <v>2068.457755089083</v>
+        <v>2884.878859242205</v>
       </c>
       <c r="Y29" t="n">
-        <v>1671.967046009684</v>
+        <v>2488.388150162806</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F30" t="n">
-        <v>319.1148584066127</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G30" t="n">
         <v>199.3786510244077</v>
@@ -6539,25 +6539,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786333</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L30" t="n">
-        <v>628.3937003794184</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.529170671757</v>
+        <v>1147.821228861092</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.293813047411</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P30" t="n">
         <v>2352.277072610002</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="C31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="D31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="E31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="F31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="G31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="H31" t="n">
-        <v>2651.805253895887</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I31" t="n">
-        <v>2651.805253895887</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J31" t="n">
-        <v>2651.805253895887</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K31" t="n">
-        <v>2764.53365124307</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L31" t="n">
-        <v>2968.194150890255</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M31" t="n">
-        <v>3196.167586943602</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N31" t="n">
-        <v>3420.047977276962</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O31" t="n">
-        <v>3620.337243753462</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P31" t="n">
-        <v>3772.37344171942</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q31" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R31" t="n">
-        <v>3798.061577393166</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S31" t="n">
-        <v>3721.098837421018</v>
+        <v>1024.129563703548</v>
       </c>
       <c r="T31" t="n">
-        <v>3486.538994490479</v>
+        <v>1024.129563703548</v>
       </c>
       <c r="U31" t="n">
-        <v>3201.115001143885</v>
+        <v>738.7055703569542</v>
       </c>
       <c r="V31" t="n">
-        <v>2935.135655964709</v>
+        <v>472.7262251777785</v>
       </c>
       <c r="W31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="X31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
       <c r="Y31" t="n">
-        <v>2651.805253895887</v>
+        <v>189.3958231089561</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2519.522183495031</v>
+        <v>2055.172590076728</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.346681997961</v>
+        <v>1661.997088579659</v>
       </c>
       <c r="D32" t="n">
-        <v>1740.905553214629</v>
+        <v>1661.997088579659</v>
       </c>
       <c r="E32" t="n">
-        <v>1338.322028331174</v>
+        <v>1259.413563696203</v>
       </c>
       <c r="F32" t="n">
-        <v>921.4275898611514</v>
+        <v>842.519125226181</v>
       </c>
       <c r="G32" t="n">
-        <v>508.86966054802</v>
+        <v>429.9611959130496</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9807864236408</v>
+        <v>112.0723217886703</v>
       </c>
       <c r="I32" t="n">
         <v>75.96123154786331</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874828</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612515</v>
@@ -6721,31 +6721,31 @@
         <v>3549.201349130629</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R32" t="n">
         <v>3798.061577393165</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393165</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T32" t="n">
-        <v>3577.208601638115</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="U32" t="n">
-        <v>3321.504258168623</v>
+        <v>3168.773180116319</v>
       </c>
       <c r="V32" t="n">
-        <v>3321.504258168623</v>
+        <v>2826.666370819838</v>
       </c>
       <c r="W32" t="n">
-        <v>3321.504258168623</v>
+        <v>2455.667335788125</v>
       </c>
       <c r="X32" t="n">
-        <v>3316.507638285826</v>
+        <v>2455.667335788125</v>
       </c>
       <c r="Y32" t="n">
-        <v>2920.016929206427</v>
+        <v>2455.667335788125</v>
       </c>
     </row>
     <row r="33">
@@ -6785,10 +6785,10 @@
         <v>75.96123154786331</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794184</v>
+        <v>313.8895596758467</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671757</v>
+        <v>1022.025029968186</v>
       </c>
       <c r="N33" t="n">
         <v>1760.293813047411</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.23371876801</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="C34" t="n">
-        <v>702.23371876801</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="D34" t="n">
-        <v>546.6006056705248</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="E34" t="n">
-        <v>401.2699160245194</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="F34" t="n">
-        <v>243.9439812374923</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="G34" t="n">
         <v>75.96123154786331</v>
@@ -6894,16 +6894,16 @@
         <v>702.23371876801</v>
       </c>
       <c r="V34" t="n">
-        <v>702.23371876801</v>
+        <v>436.2543735888343</v>
       </c>
       <c r="W34" t="n">
-        <v>702.23371876801</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="X34" t="n">
-        <v>702.23371876801</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.23371876801</v>
+        <v>152.9239715200119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1608.743602238728</v>
+        <v>2102.627745025009</v>
       </c>
       <c r="C35" t="n">
-        <v>1608.743602238728</v>
+        <v>1709.452243527939</v>
       </c>
       <c r="D35" t="n">
-        <v>1223.302473455396</v>
+        <v>1324.011114744607</v>
       </c>
       <c r="E35" t="n">
-        <v>1223.302473455396</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="F35" t="n">
-        <v>806.408034985374</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="G35" t="n">
-        <v>393.8501056722425</v>
+        <v>508.86966054802</v>
       </c>
       <c r="H35" t="n">
-        <v>75.96123154786331</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J35" t="n">
         <v>270.9233280874832</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130486</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612515</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361766</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.20134913063</v>
       </c>
       <c r="Q35" t="n">
         <v>3798.061577393166</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393165</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585811</v>
+        <v>3577.208601638116</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116319</v>
+        <v>3321.504258168624</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819838</v>
+        <v>3321.504258168624</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788125</v>
+        <v>3289.065804882748</v>
       </c>
       <c r="X35" t="n">
-        <v>2066.214730721182</v>
+        <v>2899.613199815804</v>
       </c>
       <c r="Y35" t="n">
-        <v>1669.724021641783</v>
+        <v>2503.122490736405</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J36" t="n">
-        <v>219.0418890481677</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K36" t="n">
-        <v>219.0418890481677</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="L36" t="n">
-        <v>771.4743578797227</v>
+        <v>628.3937003794184</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.609828172061</v>
+        <v>1336.529170671757</v>
       </c>
       <c r="N36" t="n">
-        <v>2217.878611251287</v>
+        <v>1336.529170671757</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1928.512430234349</v>
       </c>
       <c r="P36" t="n">
         <v>2352.277072610002</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.69365762550927</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="C37" t="n">
-        <v>77.69365762550927</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="D37" t="n">
-        <v>75.96123154786331</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786331</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786331</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786331</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="H37" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="I37" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K37" t="n">
         <v>188.689628895047</v>
@@ -7119,28 +7119,28 @@
         <v>1222.217555045143</v>
       </c>
       <c r="R37" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S37" t="n">
-        <v>912.4273982201015</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T37" t="n">
-        <v>912.4273982201015</v>
+        <v>987.6577121146041</v>
       </c>
       <c r="U37" t="n">
-        <v>627.0034048735074</v>
+        <v>702.23371876801</v>
       </c>
       <c r="V37" t="n">
-        <v>361.0240596943316</v>
+        <v>436.2543735888343</v>
       </c>
       <c r="W37" t="n">
-        <v>77.69365762550927</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="X37" t="n">
-        <v>77.69365762550927</v>
+        <v>152.9239715200119</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.69365762550927</v>
+        <v>152.9239715200119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2201.633309370652</v>
+        <v>1789.07538005752</v>
       </c>
       <c r="C38" t="n">
-        <v>1808.457807873582</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.01667909025</v>
+        <v>1010.458749777119</v>
       </c>
       <c r="E38" t="n">
-        <v>1020.433154206794</v>
+        <v>607.875224893663</v>
       </c>
       <c r="F38" t="n">
-        <v>603.5387157367722</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="G38" t="n">
         <v>190.9807864236408</v>
@@ -7180,19 +7180,19 @@
         <v>705.3108151130483</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612515</v>
+        <v>1292.177839612516</v>
       </c>
       <c r="M38" t="n">
         <v>1942.267504401616</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818618</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361766</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.20134913063</v>
       </c>
       <c r="Q38" t="n">
         <v>3798.061577393166</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393166</v>
       </c>
       <c r="S38" t="n">
-        <v>3798.061577393166</v>
+        <v>3688.619284243453</v>
       </c>
       <c r="T38" t="n">
-        <v>3798.061577393166</v>
+        <v>3688.619284243453</v>
       </c>
       <c r="U38" t="n">
-        <v>3542.357233923673</v>
+        <v>3688.619284243453</v>
       </c>
       <c r="V38" t="n">
-        <v>3542.357233923673</v>
+        <v>3346.512474946972</v>
       </c>
       <c r="W38" t="n">
-        <v>3388.071369228391</v>
+        <v>2975.513439915259</v>
       </c>
       <c r="X38" t="n">
-        <v>2998.618764161447</v>
+        <v>2586.060834848316</v>
       </c>
       <c r="Y38" t="n">
-        <v>2602.128055082048</v>
+        <v>2189.570125768917</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>75.96123154786332</v>
       </c>
       <c r="K39" t="n">
-        <v>446.9164895271317</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="L39" t="n">
-        <v>631.0211665505497</v>
+        <v>311.1196293974986</v>
       </c>
       <c r="M39" t="n">
-        <v>1339.156636842888</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="N39" t="n">
-        <v>2077.425419922114</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="O39" t="n">
-        <v>2077.425419922114</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P39" t="n">
         <v>2077.425419922114</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0338460993277</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="C40" t="n">
-        <v>556.8287281653169</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="D40" t="n">
-        <v>556.8287281653169</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="E40" t="n">
-        <v>401.2699160245194</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="F40" t="n">
-        <v>243.9439812374923</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="G40" t="n">
         <v>75.96123154786332</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045143</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S40" t="n">
-        <v>912.4273982201015</v>
+        <v>1145.254815072994</v>
       </c>
       <c r="T40" t="n">
-        <v>727.0338460993277</v>
+        <v>910.6949721424555</v>
       </c>
       <c r="U40" t="n">
-        <v>727.0338460993277</v>
+        <v>625.2709787958614</v>
       </c>
       <c r="V40" t="n">
-        <v>727.0338460993277</v>
+        <v>359.2916336166857</v>
       </c>
       <c r="W40" t="n">
-        <v>727.0338460993277</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="X40" t="n">
-        <v>727.0338460993277</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.0338460993277</v>
+        <v>75.96123154786332</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.428365111275</v>
+        <v>1789.07538005752</v>
       </c>
       <c r="C41" t="n">
-        <v>1693.438252997805</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D41" t="n">
-        <v>1307.997124214472</v>
+        <v>1010.458749777119</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4135993310169</v>
+        <v>607.875224893663</v>
       </c>
       <c r="F41" t="n">
-        <v>488.5191608609948</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="G41" t="n">
-        <v>75.96123154786331</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H41" t="n">
-        <v>75.96123154786331</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874828</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130486</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612515</v>
@@ -7429,34 +7429,34 @@
         <v>3115.769891361766</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.20134913063</v>
       </c>
       <c r="Q41" t="n">
         <v>3798.061577393166</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393165</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="S41" t="n">
         <v>3645.330499340861</v>
       </c>
       <c r="T41" t="n">
-        <v>3424.477523585811</v>
+        <v>3554.871022646003</v>
       </c>
       <c r="U41" t="n">
-        <v>3424.477523585811</v>
+        <v>3299.16667917651</v>
       </c>
       <c r="V41" t="n">
-        <v>3082.370714289329</v>
+        <v>2957.059869880029</v>
       </c>
       <c r="W41" t="n">
-        <v>2711.371679257617</v>
+        <v>2586.060834848316</v>
       </c>
       <c r="X41" t="n">
-        <v>2321.919074190674</v>
+        <v>2586.060834848316</v>
       </c>
       <c r="Y41" t="n">
-        <v>1925.428365111275</v>
+        <v>2189.570125768917</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K42" t="n">
-        <v>75.96123154786331</v>
+        <v>311.1196293974986</v>
       </c>
       <c r="L42" t="n">
-        <v>628.3937003794184</v>
+        <v>311.1196293974986</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.529170671757</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="N42" t="n">
-        <v>2074.797953750982</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="O42" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.96123154786331</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="C43" t="n">
-        <v>75.96123154786331</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="D43" t="n">
-        <v>75.96123154786331</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="E43" t="n">
-        <v>75.96123154786331</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786331</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786331</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786331</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K43" t="n">
         <v>188.689628895047</v>
@@ -7602,19 +7602,19 @@
         <v>1222.217555045143</v>
       </c>
       <c r="U43" t="n">
-        <v>936.793561698549</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="V43" t="n">
-        <v>670.8142165193732</v>
+        <v>956.2382098659672</v>
       </c>
       <c r="W43" t="n">
-        <v>670.8142165193732</v>
+        <v>672.9078077971449</v>
       </c>
       <c r="X43" t="n">
-        <v>436.7338943023562</v>
+        <v>438.8274855801279</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.6218331189996</v>
+        <v>215.7154243967713</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.081054711698</v>
+        <v>1984.920139034222</v>
       </c>
       <c r="C44" t="n">
-        <v>1740.905553214629</v>
+        <v>1591.744637537152</v>
       </c>
       <c r="D44" t="n">
-        <v>1740.905553214629</v>
+        <v>1206.30350875382</v>
       </c>
       <c r="E44" t="n">
-        <v>1338.322028331174</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F44" t="n">
-        <v>921.4275898611514</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G44" t="n">
-        <v>508.86966054802</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H44" t="n">
         <v>190.9807864236408</v>
@@ -7657,13 +7657,13 @@
         <v>1292.177839612515</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.267504401615</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N44" t="n">
         <v>2575.851817818617</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.769891361765</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P44" t="n">
         <v>3549.201349130629</v>
@@ -7678,22 +7678,22 @@
         <v>3798.061577393165</v>
       </c>
       <c r="T44" t="n">
-        <v>3662.625923865919</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U44" t="n">
-        <v>3662.625923865919</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="V44" t="n">
-        <v>3320.519114569438</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="W44" t="n">
-        <v>3320.519114569438</v>
+        <v>3171.358198891961</v>
       </c>
       <c r="X44" t="n">
-        <v>2931.066509502494</v>
+        <v>2781.905593825018</v>
       </c>
       <c r="Y44" t="n">
-        <v>2534.575800423095</v>
+        <v>2385.414884745619</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2306.520858014183</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C45" t="n">
-        <v>2155.866627574275</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D45" t="n">
-        <v>2025.777660195756</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E45" t="n">
-        <v>1889.331169306643</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F45" t="n">
-        <v>1764.899363189775</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G45" t="n">
-        <v>1645.16315580757</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H45" t="n">
-        <v>1559.991135996501</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>1521.745736331026</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J45" t="n">
-        <v>1521.745736331026</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K45" t="n">
-        <v>1521.745736331026</v>
+        <v>311.1196293974986</v>
       </c>
       <c r="L45" t="n">
-        <v>2074.178205162581</v>
+        <v>311.1196293974986</v>
       </c>
       <c r="M45" t="n">
-        <v>2782.31367545492</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="N45" t="n">
-        <v>3520.582458534145</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="O45" t="n">
-        <v>3798.061577393165</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P45" t="n">
-        <v>3798.061577393165</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q45" t="n">
-        <v>3798.061577393165</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R45" t="n">
-        <v>3794.236775028925</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S45" t="n">
-        <v>3665.317021885006</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T45" t="n">
-        <v>3489.637587679135</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U45" t="n">
-        <v>3279.595734525272</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V45" t="n">
-        <v>3057.055732896339</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W45" t="n">
-        <v>2826.938487029626</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X45" t="n">
-        <v>2637.631409379637</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y45" t="n">
-        <v>2458.317192455144</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3599.973586051571</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="C46" t="n">
-        <v>3577.504903855297</v>
+        <v>215.7154243967713</v>
       </c>
       <c r="D46" t="n">
-        <v>3421.871790757811</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E46" t="n">
-        <v>3266.312978617013</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F46" t="n">
-        <v>3108.987043829986</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G46" t="n">
-        <v>2941.004294140357</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H46" t="n">
-        <v>2787.93788417717</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I46" t="n">
-        <v>2663.002316357353</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.805253895886</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243069</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.194150890254</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943601</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276961</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753461</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719419</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393165</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R46" t="n">
-        <v>3798.061577393165</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S46" t="n">
-        <v>3599.973586051571</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T46" t="n">
-        <v>3599.973586051571</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U46" t="n">
-        <v>3599.973586051571</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="V46" t="n">
-        <v>3599.973586051571</v>
+        <v>956.2382098659672</v>
       </c>
       <c r="W46" t="n">
-        <v>3599.973586051571</v>
+        <v>672.9078077971449</v>
       </c>
       <c r="X46" t="n">
-        <v>3599.973586051571</v>
+        <v>438.8274855801279</v>
       </c>
       <c r="Y46" t="n">
-        <v>3599.973586051571</v>
+        <v>215.7154243967713</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>163.996400009297</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>514.986373519011</v>
       </c>
       <c r="M6" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,25 +9008,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>647.2923877624991</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>72.34750641868239</v>
       </c>
       <c r="K18" t="n">
-        <v>72.3396380015147</v>
+        <v>72.33963800151476</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>66.85578091152128</v>
       </c>
       <c r="M18" t="n">
-        <v>65.30848807970105</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>521.4960941184813</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>613.3398482711605</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>77.3461839149316</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>72.34750641868233</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>72.33963800151466</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>643.8855696599709</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>747.7440848855357</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>67.26026692161389</v>
       </c>
       <c r="P21" t="n">
-        <v>66.67572130591807</v>
+        <v>66.67572130591817</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.34618391493154</v>
+        <v>77.3461839149316</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406364</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248275</v>
+        <v>37.86348895248282</v>
       </c>
       <c r="L24" t="n">
-        <v>260.8299884677677</v>
+        <v>20.49834389404766</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>95.05587899625239</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983253</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995626</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406364</v>
+        <v>52.17609846406368</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248275</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935471</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392738346</v>
       </c>
       <c r="O27" t="n">
-        <v>296.7442678660695</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983253</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995626</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,22 +10193,22 @@
         <v>52.17609846406368</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248282</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404766</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>719.1961308051733</v>
       </c>
       <c r="N30" t="n">
-        <v>430.0931537703157</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463601</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983261</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>50.09263685995631</v>
@@ -10430,25 +10430,25 @@
         <v>52.17609846406368</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248282</v>
+        <v>37.86348895248283</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>260.8299884677683</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>430.0931537703157</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983261</v>
+        <v>25.90589819983262</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995631</v>
+        <v>50.09263685995632</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406368</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248282</v>
+        <v>37.86348895248283</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10676,16 +10676,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574792</v>
       </c>
       <c r="O36" t="n">
-        <v>152.218351199096</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983261</v>
+        <v>453.9509915085735</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995631</v>
+        <v>50.09263685995632</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,22 +10904,22 @@
         <v>52.17609846406368</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248283</v>
       </c>
       <c r="L39" t="n">
-        <v>206.4626641197224</v>
+        <v>258.0320790956994</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574792</v>
       </c>
       <c r="O39" t="n">
-        <v>16.46232962463601</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983261</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11141,25 +11141,25 @@
         <v>52.17609846406368</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248282</v>
+        <v>275.3972241541346</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404768</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574792</v>
       </c>
       <c r="O42" t="n">
-        <v>296.7442678660701</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>25.90589819983261</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11378,25 +11378,25 @@
         <v>52.17609846406368</v>
       </c>
       <c r="K45" t="n">
-        <v>37.86348895248282</v>
+        <v>275.3972241541346</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404766</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574778</v>
       </c>
       <c r="O45" t="n">
-        <v>296.744267866071</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983261</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995631</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>314.9022469666458</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>51.15789175367445</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>107.2626322044156</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
         <v>153.923765528121</v>
@@ -23472,13 +23472,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.3573319343043</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>9.995396497006823</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>266.8124145795298</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>318.7966226942563</v>
       </c>
       <c r="I17" t="n">
-        <v>129.2532318950156</v>
+        <v>129.2532318950157</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167605</v>
+        <v>25.06600571167608</v>
       </c>
       <c r="S17" t="n">
         <v>160.2968220968436</v>
@@ -23791,13 +23791,13 @@
         <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>246.9232960702679</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>129.069057250924</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73998494902285</v>
+        <v>23.73998494902287</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>118.6333759660425</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>123.4583170799894</v>
+        <v>4.82494111394692</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>38.74967746014897</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.8313869843473</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7966226942563</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>129.2532318950156</v>
+        <v>129.2532318950157</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167602</v>
+        <v>25.06600571167608</v>
       </c>
       <c r="S20" t="n">
         <v>160.2968220968436</v>
@@ -24025,19 +24025,19 @@
         <v>220.3912303089295</v>
       </c>
       <c r="U20" t="n">
-        <v>111.1602505871258</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24138,19 +24138,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>97.6216534169568</v>
       </c>
       <c r="G22" t="n">
         <v>166.4819164376007</v>
       </c>
       <c r="H22" t="n">
-        <v>153.1271674224726</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>129.069057250924</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902284</v>
+        <v>23.73998494902287</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.6333759660425</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.824941113946636</v>
+        <v>199.2264929501065</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.9790380929423</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831354</v>
+        <v>46.98796865389374</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270196</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717814</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>186.2151204747647</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.5078984565681</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>47.49309956919252</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.08509183685219</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>196.1071114281789</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>180.0431845957675</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>146.2571135878113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.99928758396894</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>151.5357458635549</v>
@@ -24624,7 +24624,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685217</v>
+        <v>11.08509183685219</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.5851438286121</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.2142445012334</v>
@@ -24660,16 +24660,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>61.37688067235183</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>313.4431319261657</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270197</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>2.220594124221691</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>39.23550021807303</v>
       </c>
       <c r="I31" t="n">
         <v>123.6862121416196</v>
@@ -24888,10 +24888,10 @@
         <v>110.5851438286121</v>
       </c>
       <c r="S31" t="n">
-        <v>119.9139988557519</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.11937998862075</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>380.6114253323052</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>10.12584126984413</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.1098096203056</v>
       </c>
       <c r="H34" t="n">
         <v>151.5357458635549</v>
@@ -25098,7 +25098,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685219</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>336.1191830452591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>335.1749759283779</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>152.3616801496409</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25329,13 +25329,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>75.34263329112781</v>
       </c>
       <c r="I37" t="n">
         <v>123.6862121416196</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685219</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831354</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717815</v>
+        <v>42.85589705356615</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>214.5460386330655</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685219</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>119.9139988557519</v>
       </c>
       <c r="T40" t="n">
-        <v>48.67462790166732</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>159.5735354897633</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
         <v>314.7099853831354</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>129.0895640695892</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.07194294896334</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25803,13 +25803,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>13.17909494313602</v>
       </c>
       <c r="I43" t="n">
         <v>123.6862121416196</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685219</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>214.5460386330658</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>151.2037672717815</v>
       </c>
       <c r="T44" t="n">
-        <v>84.56314900552572</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,28 +26025,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>146.2590713803593</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>15.72013104609152</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.08509183685219</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>110.5851438286121</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
         <v>232.2142445012334</v>
@@ -26082,16 +26082,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610850.8650542954</v>
+        <v>610850.8650542953</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610850.8650542954</v>
+        <v>610850.8650542953</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636951.9391474788</v>
+        <v>636951.9391474786</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636951.9391474788</v>
+        <v>636951.9391474786</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>689095.939651964</v>
+        <v>689095.9396519642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>689095.9396519641</v>
+        <v>689095.939651964</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>689095.9396519642</v>
+        <v>689095.939651964</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689095.939651964</v>
+        <v>689095.9396519641</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689095.9396519641</v>
+        <v>689095.939651964</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689095.939651964</v>
+        <v>689095.9396519641</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>689095.939651964</v>
+        <v>689095.9396519641</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>689095.9396519639</v>
+        <v>689095.939651964</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>414764.0096147206</v>
+      </c>
+      <c r="C2" t="n">
         <v>414764.0096147207</v>
-      </c>
-      <c r="C2" t="n">
-        <v>414764.0096147206</v>
       </c>
       <c r="D2" t="n">
         <v>414764.0096147206</v>
@@ -26325,7 +26325,7 @@
         <v>292612.1522857274</v>
       </c>
       <c r="F2" t="n">
-        <v>292612.1522857276</v>
+        <v>292612.1522857275</v>
       </c>
       <c r="G2" t="n">
         <v>305477.9052167672</v>
@@ -26337,16 +26337,16 @@
         <v>331180.7488978988</v>
       </c>
       <c r="J2" t="n">
-        <v>331180.7488978989</v>
+        <v>331180.7488978987</v>
       </c>
       <c r="K2" t="n">
+        <v>331180.7488978987</v>
+      </c>
+      <c r="L2" t="n">
+        <v>331180.7488978987</v>
+      </c>
+      <c r="M2" t="n">
         <v>331180.7488978988</v>
-      </c>
-      <c r="L2" t="n">
-        <v>331180.7488978988</v>
-      </c>
-      <c r="M2" t="n">
-        <v>331180.7488978986</v>
       </c>
       <c r="N2" t="n">
         <v>331180.7488978987</v>
@@ -26355,7 +26355,7 @@
         <v>331180.7488978988</v>
       </c>
       <c r="P2" t="n">
-        <v>331180.7488978986</v>
+        <v>331180.7488978987</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.60099636854</v>
+        <v>54449.60099636835</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105381.0203487427</v>
+        <v>105381.0203487428</v>
       </c>
       <c r="J3" t="n">
         <v>203163.713112695</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13889.96518695503</v>
+        <v>13889.96518695499</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26478,16 +26478,16 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
+        <v>47210.5370551278</v>
+      </c>
+      <c r="F5" t="n">
         <v>47210.53705512779</v>
       </c>
-      <c r="F5" t="n">
-        <v>47210.5370551278</v>
-      </c>
       <c r="G5" t="n">
-        <v>51802.954693549</v>
+        <v>51802.95469354897</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.954693549</v>
+        <v>51802.95469354897</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357441</v>
@@ -26496,19 +26496,19 @@
         <v>60977.55903357441</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.5590335744</v>
       </c>
       <c r="L5" t="n">
         <v>60977.5590335744</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.5590335744</v>
+        <v>60977.55903357441</v>
       </c>
       <c r="N5" t="n">
         <v>60977.55903357441</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.5590335744</v>
+        <v>60977.55903357441</v>
       </c>
       <c r="P5" t="n">
         <v>60977.5590335744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60999.21973444227</v>
+        <v>-60999.21973444242</v>
       </c>
       <c r="C6" t="n">
         <v>199220.1356853865</v>
       </c>
       <c r="D6" t="n">
-        <v>199220.1356853864</v>
+        <v>199220.1356853865</v>
       </c>
       <c r="E6" t="n">
-        <v>231948.5016309866</v>
+        <v>231417.4065991215</v>
       </c>
       <c r="F6" t="n">
-        <v>231948.5016309868</v>
+        <v>231417.4065991216</v>
       </c>
       <c r="G6" t="n">
-        <v>185932.6913418363</v>
+        <v>185457.5343661933</v>
       </c>
       <c r="H6" t="n">
-        <v>240382.2923382049</v>
+        <v>239907.1353625616</v>
       </c>
       <c r="I6" t="n">
-        <v>151850.0646989839</v>
+        <v>151486.6592176063</v>
       </c>
       <c r="J6" t="n">
-        <v>54067.37193503168</v>
+        <v>53703.96645365396</v>
       </c>
       <c r="K6" t="n">
-        <v>257231.0850477266</v>
+        <v>256867.679566349</v>
       </c>
       <c r="L6" t="n">
-        <v>257231.0850477267</v>
+        <v>256867.679566349</v>
       </c>
       <c r="M6" t="n">
-        <v>257231.0850477264</v>
+        <v>256867.6795663491</v>
       </c>
       <c r="N6" t="n">
-        <v>257231.0850477265</v>
+        <v>256867.679566349</v>
       </c>
       <c r="O6" t="n">
-        <v>243341.1198607716</v>
+        <v>242977.7143793941</v>
       </c>
       <c r="P6" t="n">
-        <v>257231.0850477264</v>
+        <v>256867.679566349</v>
       </c>
     </row>
   </sheetData>
@@ -26752,16 +26752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671717</v>
+        <v>49.68556691671704</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671728</v>
+        <v>49.68556691671704</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980868</v>
+        <v>148.9460117980866</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980868</v>
+        <v>148.9460117980866</v>
       </c>
       <c r="K3" t="n">
         <v>148.9460117980866</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="C4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="D4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="E4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="F4" t="n">
         <v>776.489096301444</v>
       </c>
-      <c r="C4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="E4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="F4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="G4" t="n">
-        <v>834.2073903744172</v>
+        <v>834.2073903744168</v>
       </c>
       <c r="H4" t="n">
-        <v>834.2073903744172</v>
+        <v>834.2073903744168</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482916</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482916</v>
+        <v>949.5153943482915</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482916</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="L4" t="n">
         <v>949.5153943482914</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482914</v>
+        <v>949.5153943482915</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482915</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482914</v>
+        <v>949.5153943482915</v>
       </c>
       <c r="P4" t="n">
         <v>949.5153943482914</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671717</v>
+        <v>49.68556691671704</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.26044488136955</v>
+        <v>99.26044488136959</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.71829407297314</v>
+        <v>57.71829407297287</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.3080039738744</v>
+        <v>115.3080039738747</v>
       </c>
       <c r="J4" t="n">
         <v>776.489096301444</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407297303</v>
+        <v>57.71829407297287</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407297314</v>
+        <v>57.71829407297287</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>123.2945422050306</v>
       </c>
       <c r="D2" t="n">
-        <v>195.6350318652617</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27554,13 +27554,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>130.9618682911343</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>117.3244398042876</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>77.68521246808308</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.63740893521853</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>209.4131132863945</v>
       </c>
       <c r="W7" t="n">
-        <v>197.4048500855067</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>128.2396890610301</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>255.202718243298</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>56.74727783187143</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>66.12369447580232</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725295161</v>
+        <v>0.1997409725295156</v>
       </c>
       <c r="H17" t="n">
-        <v>2.045597234917907</v>
+        <v>2.045597234917902</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843444178</v>
+        <v>7.700513843444156</v>
       </c>
       <c r="J17" t="n">
-        <v>16.95276536722703</v>
+        <v>16.95276536722699</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073440146</v>
+        <v>25.40780073440139</v>
       </c>
       <c r="L17" t="n">
-        <v>31.52062352245164</v>
+        <v>31.52062352245155</v>
       </c>
       <c r="M17" t="n">
-        <v>35.07276704267342</v>
+        <v>35.07276704267333</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108087291</v>
+        <v>35.64028108087282</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678528254</v>
+        <v>33.65410678528244</v>
       </c>
       <c r="P17" t="n">
-        <v>28.7230015259601</v>
+        <v>28.72300152596002</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.5697779472468</v>
+        <v>21.56977794724674</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565723</v>
+        <v>12.54697886565719</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411516353</v>
+        <v>4.55159741151634</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072479573</v>
+        <v>0.8743661072479548</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01597927780236129</v>
+        <v>0.01597927780236124</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472785</v>
+        <v>0.1068708420472782</v>
       </c>
       <c r="H18" t="n">
-        <v>1.032147342930295</v>
+        <v>1.032147342930292</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342417263</v>
+        <v>3.679544342417253</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09695091465099</v>
+        <v>10.09695091465096</v>
       </c>
       <c r="K18" t="n">
-        <v>17.25729733181864</v>
+        <v>17.2572973318186</v>
       </c>
       <c r="L18" t="n">
-        <v>23.20456594539702</v>
+        <v>23.20456594539695</v>
       </c>
       <c r="M18" t="n">
-        <v>27.07863396961086</v>
+        <v>27.07863396961078</v>
       </c>
       <c r="N18" t="n">
-        <v>27.79532483579634</v>
+        <v>27.79532483579626</v>
       </c>
       <c r="O18" t="n">
-        <v>25.42729196727506</v>
+        <v>25.42729196727499</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339653</v>
+        <v>20.40764351339648</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.64196924098242</v>
+        <v>13.64196924098239</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842198572</v>
+        <v>6.635366842198553</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851859</v>
+        <v>1.985079017851854</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326704</v>
+        <v>0.4307644905326692</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478848</v>
+        <v>0.007030976450478829</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08959692394817849</v>
+        <v>0.08959692394817825</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7965981056483512</v>
+        <v>0.796598105648349</v>
       </c>
       <c r="I19" t="n">
-        <v>2.69442385836886</v>
+        <v>2.694423858368852</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523136219</v>
+        <v>6.334502523136202</v>
       </c>
       <c r="K19" t="n">
-        <v>10.40953352779746</v>
+        <v>10.40953352779743</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862283</v>
+        <v>13.32061903862279</v>
       </c>
       <c r="M19" t="n">
-        <v>14.0447250876222</v>
+        <v>14.04472508762216</v>
       </c>
       <c r="N19" t="n">
-        <v>13.71077291654263</v>
+        <v>13.7107729165426</v>
       </c>
       <c r="O19" t="n">
-        <v>12.66411794132982</v>
+        <v>12.66411794132978</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278697</v>
+        <v>10.83634069278694</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604424292</v>
+        <v>7.502520604424272</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507706279</v>
+        <v>4.028603507706269</v>
       </c>
       <c r="S19" t="n">
-        <v>1.561430029169619</v>
+        <v>1.561430029169615</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058535</v>
+        <v>0.3828232205058524</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004887104942627923</v>
+        <v>0.00488710494262791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725295166</v>
+        <v>0.1997409725295156</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917912</v>
+        <v>2.045597234917902</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843444195</v>
+        <v>7.700513843444156</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722707</v>
+        <v>16.95276536722699</v>
       </c>
       <c r="K20" t="n">
-        <v>25.40780073440152</v>
+        <v>25.40780073440139</v>
       </c>
       <c r="L20" t="n">
-        <v>31.52062352245171</v>
+        <v>31.52062352245155</v>
       </c>
       <c r="M20" t="n">
-        <v>35.0727670426735</v>
+        <v>35.07276704267333</v>
       </c>
       <c r="N20" t="n">
-        <v>35.640281080873</v>
+        <v>35.64028108087282</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678528261</v>
+        <v>33.65410678528244</v>
       </c>
       <c r="P20" t="n">
-        <v>28.72300152596017</v>
+        <v>28.72300152596002</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724685</v>
+        <v>21.56977794724674</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565726</v>
+        <v>12.54697886565719</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411516363</v>
+        <v>4.55159741151634</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8743661072479593</v>
+        <v>0.8743661072479548</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780236132</v>
+        <v>0.01597927780236124</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472787</v>
+        <v>0.1068708420472782</v>
       </c>
       <c r="H21" t="n">
-        <v>1.032147342930297</v>
+        <v>1.032147342930292</v>
       </c>
       <c r="I21" t="n">
-        <v>3.679544342417271</v>
+        <v>3.679544342417253</v>
       </c>
       <c r="J21" t="n">
-        <v>10.09695091465101</v>
+        <v>10.09695091465096</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181868</v>
+        <v>17.2572973318186</v>
       </c>
       <c r="L21" t="n">
-        <v>23.20456594539707</v>
+        <v>23.20456594539695</v>
       </c>
       <c r="M21" t="n">
-        <v>27.07863396961092</v>
+        <v>27.07863396961078</v>
       </c>
       <c r="N21" t="n">
-        <v>27.7953248357964</v>
+        <v>27.79532483579626</v>
       </c>
       <c r="O21" t="n">
-        <v>25.42729196727512</v>
+        <v>25.42729196727499</v>
       </c>
       <c r="P21" t="n">
-        <v>20.40764351339658</v>
+        <v>20.40764351339648</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.64196924098245</v>
+        <v>13.64196924098239</v>
       </c>
       <c r="R21" t="n">
-        <v>6.635366842198587</v>
+        <v>6.635366842198553</v>
       </c>
       <c r="S21" t="n">
-        <v>1.985079017851864</v>
+        <v>1.985079017851854</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326714</v>
+        <v>0.4307644905326692</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007030976450478864</v>
+        <v>0.007030976450478829</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0895969239481787</v>
+        <v>0.08959692394817825</v>
       </c>
       <c r="H22" t="n">
-        <v>0.796598105648353</v>
+        <v>0.796598105648349</v>
       </c>
       <c r="I22" t="n">
-        <v>2.694423858368866</v>
+        <v>2.694423858368852</v>
       </c>
       <c r="J22" t="n">
-        <v>6.334502523136234</v>
+        <v>6.334502523136202</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779749</v>
+        <v>10.40953352779743</v>
       </c>
       <c r="L22" t="n">
-        <v>13.32061903862286</v>
+        <v>13.32061903862279</v>
       </c>
       <c r="M22" t="n">
-        <v>14.04472508762223</v>
+        <v>14.04472508762216</v>
       </c>
       <c r="N22" t="n">
-        <v>13.71077291654266</v>
+        <v>13.7107729165426</v>
       </c>
       <c r="O22" t="n">
-        <v>12.66411794132985</v>
+        <v>12.66411794132978</v>
       </c>
       <c r="P22" t="n">
-        <v>10.83634069278699</v>
+        <v>10.83634069278694</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604424309</v>
+        <v>7.502520604424272</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507706289</v>
+        <v>4.028603507706269</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169623</v>
+        <v>1.561430029169615</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3828232205058543</v>
+        <v>0.3828232205058524</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004887104942627935</v>
+        <v>0.00488710494262791</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767305</v>
+        <v>0.5987779368767298</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038818</v>
+        <v>6.13223454603881</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144017</v>
+        <v>23.08438641144015</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999145</v>
+        <v>50.82052891999138</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798347</v>
+        <v>76.16679898798337</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367474</v>
+        <v>94.49164927367461</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086063</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217573</v>
+        <v>106.8414442217572</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119393</v>
+        <v>100.8873461119392</v>
       </c>
       <c r="P23" t="n">
-        <v>86.105015795295</v>
+        <v>86.10501579529489</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089708</v>
+        <v>64.66128093089699</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733296</v>
+        <v>37.61298457733291</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657851</v>
+        <v>13.64465223657849</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677889</v>
+        <v>2.621150418677886</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013844</v>
+        <v>0.04790223495013837</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713566</v>
+        <v>0.3203744404713562</v>
       </c>
       <c r="H24" t="n">
-        <v>3.09414262244705</v>
+        <v>3.094142622447046</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938662</v>
+        <v>11.03043577938661</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926971</v>
+        <v>30.26835886926967</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085059</v>
+        <v>51.73344638085053</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287065</v>
+        <v>69.56200296287057</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995732</v>
+        <v>81.1755764299572</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259199</v>
+        <v>83.32405239259188</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425299</v>
+        <v>76.22522926425287</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948213</v>
+        <v>61.17746661948204</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595773</v>
+        <v>40.89551629595768</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031809</v>
+        <v>19.89131833031807</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716649974</v>
+        <v>5.950814716649966</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268318</v>
+        <v>1.291333819268317</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048399</v>
+        <v>0.02107726582048397</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162221</v>
+        <v>0.2685911688162217</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566049</v>
+        <v>2.388019664566046</v>
       </c>
       <c r="I25" t="n">
-        <v>8.0772689676733</v>
+        <v>8.077268967673289</v>
       </c>
       <c r="J25" t="n">
-        <v>18.9893956353069</v>
+        <v>18.98939563530688</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064835</v>
+        <v>31.2054103406483</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927725</v>
+        <v>39.93218158927719</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089198</v>
+        <v>42.10288658089192</v>
       </c>
       <c r="N25" t="n">
-        <v>41.101774042577</v>
+        <v>41.10177404257695</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322384</v>
+        <v>37.9641408432238</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937289</v>
+        <v>32.48488099937285</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.49084778151111</v>
+        <v>22.49084778151108</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513668</v>
+        <v>12.07683564513666</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097251</v>
+        <v>4.680811551097245</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214767</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997577</v>
+        <v>0.01465042738997575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767305</v>
+        <v>0.5987779368767298</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038818</v>
+        <v>6.13223454603881</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144017</v>
+        <v>23.08438641144015</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999145</v>
+        <v>50.82052891999138</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798347</v>
+        <v>76.16679898798337</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367474</v>
+        <v>94.49164927367461</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086063</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217573</v>
+        <v>106.8414442217572</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119393</v>
+        <v>100.8873461119392</v>
       </c>
       <c r="P26" t="n">
-        <v>86.105015795295</v>
+        <v>86.10501579529489</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089708</v>
+        <v>64.66128093089699</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733296</v>
+        <v>37.61298457733291</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657851</v>
+        <v>13.64465223657849</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677889</v>
+        <v>2.621150418677886</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013844</v>
+        <v>0.04790223495013837</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713566</v>
+        <v>0.3203744404713562</v>
       </c>
       <c r="H27" t="n">
-        <v>3.09414262244705</v>
+        <v>3.094142622447046</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938662</v>
+        <v>11.03043577938661</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926971</v>
+        <v>30.26835886926967</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085059</v>
+        <v>51.73344638085053</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287065</v>
+        <v>69.56200296287057</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995732</v>
+        <v>81.1755764299572</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259199</v>
+        <v>83.32405239259188</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425299</v>
+        <v>76.22522926425287</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948213</v>
+        <v>61.17746661948204</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595773</v>
+        <v>40.89551629595768</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031809</v>
+        <v>19.89131833031807</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716649974</v>
+        <v>5.950814716649966</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268318</v>
+        <v>1.291333819268317</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048399</v>
+        <v>0.02107726582048397</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162221</v>
+        <v>0.2685911688162217</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566049</v>
+        <v>2.388019664566046</v>
       </c>
       <c r="I28" t="n">
-        <v>8.0772689676733</v>
+        <v>8.077268967673289</v>
       </c>
       <c r="J28" t="n">
-        <v>18.9893956353069</v>
+        <v>18.98939563530688</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064835</v>
+        <v>31.2054103406483</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927725</v>
+        <v>39.93218158927719</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089198</v>
+        <v>42.10288658089192</v>
       </c>
       <c r="N28" t="n">
-        <v>41.101774042577</v>
+        <v>41.10177404257695</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322384</v>
+        <v>37.9641408432238</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937289</v>
+        <v>32.48488099937285</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.49084778151111</v>
+        <v>22.49084778151108</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513668</v>
+        <v>12.07683564513666</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097251</v>
+        <v>4.680811551097245</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214767</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997577</v>
+        <v>0.01465042738997575</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767296</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038808</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641144014</v>
       </c>
       <c r="J32" t="n">
         <v>50.82052891999138</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798336</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367458</v>
       </c>
       <c r="M32" t="n">
         <v>105.1401664086061</v>
       </c>
       <c r="N32" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O32" t="n">
         <v>100.8873461119392</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529488</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089698</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733291</v>
+        <v>37.6129845773329</v>
       </c>
       <c r="S32" t="n">
         <v>13.64465223657849</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677885</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013836</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713561</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447045</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938661</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926966</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085052</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287055</v>
       </c>
       <c r="M33" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995719</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259187</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425286</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948203</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595767</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649965</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048396</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,10 +33575,10 @@
         <v>2.388019664566046</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673287</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K34" t="n">
         <v>31.2054103406483</v>
@@ -33587,25 +33587,25 @@
         <v>39.93218158927719</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089191</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257693</v>
       </c>
       <c r="O34" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322379</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937284</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R34" t="n">
         <v>12.07683564513666</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097244</v>
       </c>
       <c r="T34" t="n">
         <v>1.147616812214765</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767296</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038808</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641144014</v>
       </c>
       <c r="J35" t="n">
         <v>50.82052891999138</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798336</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367458</v>
       </c>
       <c r="M35" t="n">
         <v>105.1401664086061</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O35" t="n">
         <v>100.8873461119392</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529488</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089698</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733291</v>
+        <v>37.6129845773329</v>
       </c>
       <c r="S35" t="n">
         <v>13.64465223657849</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677885</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013836</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713561</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447045</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938661</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926966</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085052</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287055</v>
       </c>
       <c r="M36" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995719</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259187</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425286</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948203</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595767</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649965</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048396</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,10 +33812,10 @@
         <v>2.388019664566046</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673287</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K37" t="n">
         <v>31.2054103406483</v>
@@ -33824,25 +33824,25 @@
         <v>39.93218158927719</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089191</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257693</v>
       </c>
       <c r="O37" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322379</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937284</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R37" t="n">
         <v>12.07683564513666</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097244</v>
       </c>
       <c r="T37" t="n">
         <v>1.147616812214765</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767296</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038808</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641144014</v>
       </c>
       <c r="J38" t="n">
         <v>50.82052891999138</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798336</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367458</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086061</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O38" t="n">
         <v>100.8873461119392</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529488</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089698</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733291</v>
+        <v>37.6129845773329</v>
       </c>
       <c r="S38" t="n">
         <v>13.64465223657849</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677885</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013836</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713561</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447045</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938661</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926966</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085052</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287055</v>
       </c>
       <c r="M39" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995719</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259187</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425286</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948203</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595767</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649965</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048396</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,10 +34049,10 @@
         <v>2.388019664566046</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673287</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K40" t="n">
         <v>31.2054103406483</v>
@@ -34061,25 +34061,25 @@
         <v>39.93218158927719</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089191</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257693</v>
       </c>
       <c r="O40" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322379</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937284</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R40" t="n">
         <v>12.07683564513666</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097244</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214765</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767296</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038808</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144015</v>
+        <v>23.08438641144014</v>
       </c>
       <c r="J41" t="n">
         <v>50.82052891999138</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798336</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367458</v>
       </c>
       <c r="M41" t="n">
         <v>105.1401664086061</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217572</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O41" t="n">
         <v>100.8873461119392</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529488</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089698</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733291</v>
+        <v>37.6129845773329</v>
       </c>
       <c r="S41" t="n">
         <v>13.64465223657849</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677886</v>
+        <v>2.621150418677885</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013836</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713561</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447045</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938661</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926966</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085052</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287055</v>
       </c>
       <c r="M42" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995719</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259187</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425286</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948203</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595768</v>
+        <v>40.89551629595767</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649965</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048396</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,10 +34286,10 @@
         <v>2.388019664566046</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673287</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K43" t="n">
         <v>31.2054103406483</v>
@@ -34298,25 +34298,25 @@
         <v>39.93218158927719</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089191</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257693</v>
       </c>
       <c r="O43" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322379</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937284</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R43" t="n">
         <v>12.07683564513666</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097244</v>
       </c>
       <c r="T43" t="n">
         <v>1.147616812214765</v>
@@ -34783,22 +34783,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>73.93605315237873</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="M6" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>554.9052657131872</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>163.063647093316</v>
       </c>
       <c r="K17" t="n">
-        <v>388.0162411661811</v>
+        <v>388.016241166181</v>
       </c>
       <c r="L17" t="n">
-        <v>529.8239484906626</v>
+        <v>529.8239484906625</v>
       </c>
       <c r="M17" t="n">
         <v>586.5888276937649</v>
       </c>
       <c r="N17" t="n">
-        <v>568.7829918257841</v>
+        <v>568.7829918257839</v>
       </c>
       <c r="O17" t="n">
         <v>478.1385521310688</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325478</v>
+        <v>380.4275390325477</v>
       </c>
       <c r="Q17" t="n">
         <v>208.2824649583059</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>124.3545087123554</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>511.655157761875</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>661.1914113702989</v>
       </c>
       <c r="N18" t="n">
-        <v>463.919306100111</v>
+        <v>690.1973159575731</v>
       </c>
       <c r="O18" t="n">
-        <v>547.1649511500842</v>
+        <v>546.0795813495465</v>
       </c>
       <c r="P18" t="n">
         <v>430.1261977723838</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.374384952993</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.07119121460744</v>
+        <v>93.07119121460741</v>
       </c>
       <c r="L19" t="n">
         <v>179.1061138606428</v>
@@ -36056,13 +36056,13 @@
         <v>198.7508072915014</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784087</v>
+        <v>177.0123674784086</v>
       </c>
       <c r="P19" t="n">
         <v>131.9233768307451</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457678</v>
+        <v>10.95928461457676</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933161</v>
+        <v>163.063647093316</v>
       </c>
       <c r="K20" t="n">
-        <v>388.0162411661811</v>
+        <v>388.016241166181</v>
       </c>
       <c r="L20" t="n">
-        <v>529.8239484906627</v>
+        <v>529.8239484906625</v>
       </c>
       <c r="M20" t="n">
-        <v>586.588827693765</v>
+        <v>586.5888276937649</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7829918257842</v>
+        <v>568.7829918257839</v>
       </c>
       <c r="O20" t="n">
-        <v>478.1385521310689</v>
+        <v>478.1385521310688</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325479</v>
+        <v>380.4275390325477</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.282464958306</v>
+        <v>208.2824649583059</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>124.3545087123554</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>340.2261317381079</v>
       </c>
       <c r="L21" t="n">
-        <v>511.6551577618751</v>
+        <v>511.655157761875</v>
       </c>
       <c r="M21" t="n">
-        <v>578.5770815802699</v>
+        <v>661.1914113702989</v>
       </c>
       <c r="N21" t="n">
-        <v>690.1973159575732</v>
+        <v>690.1672968671653</v>
       </c>
       <c r="O21" t="n">
-        <v>547.1649511500842</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.07119121460747</v>
+        <v>93.07119121460741</v>
       </c>
       <c r="L22" t="n">
         <v>179.1061138606428</v>
       </c>
       <c r="M22" t="n">
-        <v>202.2180365404142</v>
+        <v>202.2180365404141</v>
       </c>
       <c r="N22" t="n">
         <v>198.7508072915014</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784087</v>
+        <v>177.0123674784086</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9233768307452</v>
+        <v>131.9233768307451</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457679</v>
+        <v>10.95928461457676</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>196.9314106460805</v>
+        <v>196.9314106460804</v>
       </c>
       <c r="K23" t="n">
-        <v>438.7752394197631</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418857</v>
+        <v>592.7949742418856</v>
       </c>
       <c r="M23" t="n">
-        <v>656.6562270596978</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N23" t="n">
-        <v>639.9841549666685</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577256</v>
+        <v>545.3717914577255</v>
       </c>
       <c r="P23" t="n">
-        <v>437.8095533018827</v>
+        <v>437.8095533018826</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419562</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669741</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737201</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306454</v>
+        <v>715.2883538306453</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143688</v>
+        <v>93.00781853467761</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470621</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079683</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36527,16 +36527,16 @@
         <v>230.2761980336839</v>
       </c>
       <c r="N25" t="n">
-        <v>226.1418084175358</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O25" t="n">
-        <v>202.3123903803027</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P25" t="n">
-        <v>153.5719171373311</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166359</v>
+        <v>25.94761179166357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.9314106460805</v>
+        <v>196.9314106460804</v>
       </c>
       <c r="K26" t="n">
-        <v>438.7752394197631</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418857</v>
+        <v>592.7949742418856</v>
       </c>
       <c r="M26" t="n">
-        <v>656.6562270596978</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N26" t="n">
-        <v>639.9841549666685</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577256</v>
+        <v>545.3717914577255</v>
       </c>
       <c r="P26" t="n">
-        <v>437.8095533018827</v>
+        <v>437.8095533018826</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419562</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793487</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306454</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143688</v>
+        <v>20.10721346580868</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414336</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079683</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,16 +36764,16 @@
         <v>230.2761980336839</v>
       </c>
       <c r="N28" t="n">
-        <v>226.1418084175358</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O28" t="n">
-        <v>202.3123903803027</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373311</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166359</v>
+        <v>25.94761179166357</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0125947793485</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306453</v>
+        <v>707.9845851858186</v>
       </c>
       <c r="N30" t="n">
-        <v>428.0450933087409</v>
+        <v>745.7260435143687</v>
       </c>
       <c r="O30" t="n">
-        <v>597.962888447062</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>639.9841549666683</v>
       </c>
       <c r="O32" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P32" t="n">
         <v>437.8095533018826</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0125947793485</v>
+        <v>240.3316445737206</v>
       </c>
       <c r="M33" t="n">
         <v>715.2883538306453</v>
       </c>
       <c r="N33" t="n">
-        <v>428.0450933087409</v>
+        <v>745.7260435143687</v>
       </c>
       <c r="O33" t="n">
         <v>597.962888447062</v>
@@ -37247,7 +37247,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166356</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>639.9841549666683</v>
       </c>
       <c r="O35" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P35" t="n">
         <v>437.8095533018826</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.5259166669741</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>715.2883538306453</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>135.75602157446</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>428.0450933087409</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166356</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>639.9841549666683</v>
       </c>
       <c r="O38" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P38" t="n">
         <v>437.8095533018826</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>374.7022807871398</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>185.9643202256747</v>
+        <v>237.5337352016518</v>
       </c>
       <c r="M39" t="n">
         <v>715.2883538306453</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q39" t="n">
         <v>277.6279320079683</v>
@@ -37721,7 +37721,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166356</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>639.9841549666683</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P41" t="n">
         <v>437.8095533018826</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>237.5337352016518</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0125947793485</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>715.2883538306453</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>280.2819382414341</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079683</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166356</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>237.5337352016518</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793485</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>715.2883538306453</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143687</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>280.281938241435</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079683</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
